--- a/medicine/Enfance/Dominique_Joly/Dominique_Joly.xlsx
+++ b/medicine/Enfance/Dominique_Joly/Dominique_Joly.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dominique Joly[1],[2],[3],[4], née le 2 juin 1953 à Villemoisson-sur-Orge, est une auteur française de livres spécialisés dans la jeunesse. Elle publie son premier livre en 1987 alors qu’elle enseigne au collège et au lycée l’histoire et la géographie. Elle a publié une centaine de livres qui sont traduits dans une dizaine de langues[5]. Elle est la belle-sœur de Fanny et Sylvie Joly.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dominique Joly née le 2 juin 1953 à Villemoisson-sur-Orge, est une auteur française de livres spécialisés dans la jeunesse. Elle publie son premier livre en 1987 alors qu’elle enseigne au collège et au lycée l’histoire et la géographie. Elle a publié une centaine de livres qui sont traduits dans une dizaine de langues. Elle est la belle-sœur de Fanny et Sylvie Joly.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Née dans la région parisienne, Dominique Joly est la seconde d’une famille de quatre filles.  Après des études à Sciences-Po Paris et à la Sorbonne, elle a été professeur d’histoire au collège et au lycée. Aujourd’hui, elle enseigne à l’Université de Paris Est Marne la Vallée[6], rencontre régulièrement ses lecteurs dans les établissements scolaires ou dans les salons du livre[7],[8], anime des ateliers d’écriture dans le cadre de l’opération « Voyages En Ville »[9], aide des jeunes éditeurs du SIPAR à se former au Cambodge et donne des conférences[10],[11]. 
-Ses ouvrages s'adressent à des jeunes de 6 à 16 ans et portent principalement sur des sujets historiques : documentaires, romans[12],[13] et bandes dessinées[14],[15],[16],[17],[18].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Née dans la région parisienne, Dominique Joly est la seconde d’une famille de quatre filles.  Après des études à Sciences-Po Paris et à la Sorbonne, elle a été professeur d’histoire au collège et au lycée. Aujourd’hui, elle enseigne à l’Université de Paris Est Marne la Vallée, rencontre régulièrement ses lecteurs dans les établissements scolaires ou dans les salons du livre anime des ateliers d’écriture dans le cadre de l’opération « Voyages En Ville », aide des jeunes éditeurs du SIPAR à se former au Cambodge et donne des conférences,. 
+Ses ouvrages s'adressent à des jeunes de 6 à 16 ans et portent principalement sur des sujets historiques : documentaires, romans, et bandes dessinées.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>L'Histoire du Monde en BD : Les Grandes Découvertes. Illustrations d'Emmanuel Olivier. Casterman. 2018
 Le Château de Versailles en BD. Illustrations de Cléo Germain. Editions Belin. 2018
